--- a/OSTP_v2/by_research_organization/Where_groups_publish_summary.xlsx
+++ b/OSTP_v2/by_research_organization/Where_groups_publish_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eschares\Desktop\eschares\python_work_local\OSTP_impact\OSTP_v2\by_research_organization\ResOrg_groups_publish_here\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25EA0A-6F67-4FA6-A885-5D9798BE6CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7626DD3C-E057-4339-81D4-6998D3C10A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53880" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>% times JIF</t>
+  </si>
+  <si>
+    <t>Guessing, this is a book series do doesn't have a true JIF assigned</t>
   </si>
 </sst>
 </file>
@@ -550,20 +553,20 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -629,7 +632,7 @@
         <v>5.7692493157730916E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -664,7 +667,7 @@
         <v>4.1901135239475765E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -699,7 +702,7 @@
         <v>0.15736488253800329</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -734,7 +737,7 @@
         <v>9.9703075477570652E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -769,7 +772,7 @@
         <v>3.6598796812737359E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -804,7 +807,7 @@
         <v>2.1337139383560143E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -839,7 +842,7 @@
         <v>7.5827538288212593E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -874,7 +877,7 @@
         <v>2.3277596664859596E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -902,14 +905,14 @@
       </c>
       <c r="I10" s="1">
         <f>VLOOKUP(B10,'JIF Lookup'!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.5137787883083045E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -944,7 +947,7 @@
         <v>3.6613043929340144E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -978,7 +981,7 @@
         <v>5.810815771120538E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>4.6467543772253185E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>3.4734639727744189E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>3.4199252240394752E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>0.10280173882948879</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>2.8499813846662087E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>5.7449017582313862E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1216,14 +1219,14 @@
       </c>
       <c r="I19" s="1">
         <f>VLOOKUP(B19,'JIF Lookup'!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.0062295821250843E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>2.1348379417208959E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>2.9989040549965127E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>5.6988719960765079E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>8.3521333987248647E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>4.8540951446787647E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>4.8504168710152042E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>2.5490436488474745E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>6.3254046101029929E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>9.5267287886218743E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>9.813634134379598E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>0.12822461991172146</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>3.9063266307013247E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>7.116136774119565E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>5.8628245190830937E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>3.8398813936249075E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>0.14188615262379747</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>8.9875045562704509E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>2.6457904156547311E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>3.3153266794720054E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>2.9723674995597308E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>4.4836977667107619E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1966,14 +1969,14 @@
       </c>
       <c r="I41" s="1">
         <f>VLOOKUP(B41,'JIF Lookup'!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.9023422301766395E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>6.7611066773077946E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>4.9215216812982174E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>5.1715881883479649E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>4.8337323756318169E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>4.9534450651769105E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>4.7885075818036714E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>4.40609204575685E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>3.9478584729981378E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>2.1235700984304336E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>5.7196062782654961E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>5.6823027718550106E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>4.424770557152128E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>5.7349123945489945E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>0.14877762915678927</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>9.5845528347614187E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>3.4366764226780921E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>2.5308903574408351E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>4.256777337800792E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>2.3186640003178428E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2660,18 +2663,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515697BD-0C8B-4DFB-864F-7CD29AEB14CE}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="64.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2735,7 +2738,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2743,12 +2746,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2756,7 +2765,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2764,7 +2773,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2772,7 +2781,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2788,7 +2797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2804,7 +2813,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2820,7 +2829,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2828,7 +2837,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2836,7 +2845,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2844,7 +2853,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2870,12 +2879,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>7.4046283402182231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>6.7780790024278588</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>11.09612555174105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>8.438008100946476</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -2923,7 +2932,7 @@
         <v>9.783187017823888</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -2931,118 +2940,118 @@
         <v>8.1526705425843282</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
     </row>
   </sheetData>
